--- a/cut.xlsx
+++ b/cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\videoAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A32B4-8227-4FEA-AD19-D5D8CA5BEAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151F09D-8CA8-45E7-B02D-38043606ED5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
         <v>3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
         <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
         <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
         <v>6</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
         <v>7</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1">
